--- a/docs/hibernate_roadmap.xlsx
+++ b/docs/hibernate_roadmap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="XML_Element" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="182">
   <si>
     <t>hibernate-mapping</t>
   </si>
@@ -509,6 +509,78 @@
   </si>
   <si>
     <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个持久化类与table的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性与Column映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多对一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级缓存标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键生成器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主外键关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,12 +604,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -552,8 +636,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,6 +656,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C87" totalsRowShown="0">
+  <autoFilter ref="A1:C87"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Element名称"/>
+    <tableColumn id="2" name="说明"/>
+    <tableColumn id="3" name="主外键关系"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B85" totalsRowShown="0">
   <autoFilter ref="A1:B85"/>
   <sortState ref="A2:B85">
@@ -869,450 +968,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>63</v>
+      <c r="B64" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1320,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/hibernate_roadmap.xlsx
+++ b/docs/hibernate_roadmap.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/hibernate_roadmap.xlsx
+++ b/docs/hibernate_roadmap.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="XML_Element" sheetId="1" r:id="rId1"/>
     <sheet name="XML_Attr" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Roadmap" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="277">
   <si>
     <t>hibernate-mapping</t>
   </si>
@@ -581,6 +581,294 @@
   </si>
   <si>
     <t>主外键关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hibernate</t>
+  </si>
+  <si>
+    <t>事务控制</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>@Transation</t>
+  </si>
+  <si>
+    <t>手工</t>
+  </si>
+  <si>
+    <t>OR映射技术</t>
+  </si>
+  <si>
+    <t>自动增长identity</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>hilo</t>
+  </si>
+  <si>
+    <t>seqhilo</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>uuid.hex</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  xml元素</t>
+  </si>
+  <si>
+    <t>节点</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>对象继承</t>
+  </si>
+  <si>
+    <t>主键形式</t>
+  </si>
+  <si>
+    <t>单一主键</t>
+  </si>
+  <si>
+    <t>复合主键</t>
+  </si>
+  <si>
+    <t>映射关系</t>
+  </si>
+  <si>
+    <t>关联关系映射</t>
+  </si>
+  <si>
+    <t>xml属性</t>
+  </si>
+  <si>
+    <t>单向关联</t>
+  </si>
+  <si>
+    <t>使用连接表的单向关联</t>
+  </si>
+  <si>
+    <t>双向关联</t>
+  </si>
+  <si>
+    <t>使用连接表的双向关联</t>
+  </si>
+  <si>
+    <t>更复杂的关联映射</t>
+  </si>
+  <si>
+    <t>对象/关系数据库映射基础</t>
+  </si>
+  <si>
+    <t>映射定义</t>
+  </si>
+  <si>
+    <t>hibernate类型</t>
+  </si>
+  <si>
+    <t>多次映射同一个类</t>
+  </si>
+  <si>
+    <t>SQL 中引号包围的标识符</t>
+  </si>
+  <si>
+    <t>数据库生成属性</t>
+  </si>
+  <si>
+    <t>读和写表达式</t>
+  </si>
+  <si>
+    <t>辅助数据库对象</t>
+  </si>
+  <si>
+    <t>组件映射</t>
+  </si>
+  <si>
+    <t>集合映射</t>
+  </si>
+  <si>
+    <t>Hibernate3与Hibernate4的区别</t>
+  </si>
+  <si>
+    <t>并发</t>
+  </si>
+  <si>
+    <t>缓存</t>
+  </si>
+  <si>
+    <t>一级缓存</t>
+  </si>
+  <si>
+    <t>二级缓存</t>
+  </si>
+  <si>
+    <t>Hibernate API</t>
+  </si>
+  <si>
+    <t>主要对象</t>
+  </si>
+  <si>
+    <t>自定义基类</t>
+  </si>
+  <si>
+    <t>配置文件</t>
+  </si>
+  <si>
+    <t>hibernate.dialect</t>
+  </si>
+  <si>
+    <t>hibernate.connection.driver_class</t>
+  </si>
+  <si>
+    <t>hibernate.connection.url</t>
+  </si>
+  <si>
+    <t>hibernate.connection.username</t>
+  </si>
+  <si>
+    <t>hibernate.connection.password</t>
+  </si>
+  <si>
+    <t>hibernate.show_sql</t>
+  </si>
+  <si>
+    <t>批量处理</t>
+  </si>
+  <si>
+    <t>查询方式</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>HQL</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>连接池</t>
+  </si>
+  <si>
+    <t>C3P0</t>
+  </si>
+  <si>
+    <t>Proxool</t>
+  </si>
+  <si>
+    <t>DBCP</t>
+  </si>
+  <si>
+    <t>JNDI</t>
+  </si>
+  <si>
+    <t>对象状态</t>
+  </si>
+  <si>
+    <t>临时状态</t>
+  </si>
+  <si>
+    <t>持久化状态</t>
+  </si>
+  <si>
+    <t>游离状态</t>
+  </si>
+  <si>
+    <t>拦截器</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>检索策略</t>
+  </si>
+  <si>
+    <t>延时加载Lazy</t>
+  </si>
+  <si>
+    <t>POJO</t>
+  </si>
+  <si>
+    <t>注解</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t>excute</t>
+  </si>
+  <si>
+    <t>batch_excute</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>start_transation</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>rollback</t>
+  </si>
+  <si>
+    <t>术语</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>JTA</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  主键策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR映射技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  xml元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +911,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -636,11 +930,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,6 +971,26 @@
   <tableColumns count="2">
     <tableColumn id="1" name="属性名"/>
     <tableColumn id="2" name="次数"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="I5:I15" totalsRowShown="0">
+  <autoFilter ref="I5:I15"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="  主键策略"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="K5:K15" totalsRowShown="0">
+  <autoFilter ref="K5:K15"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="  xml元素"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,7 +1286,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,7 +1466,7 @@
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2207,13 +2522,1416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>